--- a/data/trans_orig/IPAQ_MET-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IPAQ_MET-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7226BC4-5B69-42CB-B882-53CD66E32EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{935D7F72-E929-4B39-BF8E-71035BC6F48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1C559F0F-EFCE-4EB1-9685-4854B47B3F5F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AE4DAE16-462B-4A9D-B57C-2CBA73FBD424}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="454">
   <si>
     <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -266,16 +266,16 @@
     <t>0,28%</t>
   </si>
   <si>
-    <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>24,46%</t>
   </si>
   <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
   </si>
   <si>
     <t>9,4%</t>
@@ -284,1029 +284,1029 @@
     <t>6,83%</t>
   </si>
   <si>
-    <t>12,33%</t>
+    <t>12,37%</t>
   </si>
   <si>
     <t>17,15%</t>
   </si>
   <si>
-    <t>14,69%</t>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
   </si>
   <si>
     <t>20,04%</t>
   </si>
   <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
   </si>
   <si>
     <t>34,54%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
     <t>45,56%</t>
   </si>
   <si>
@@ -1365,9 +1365,6 @@
   </si>
   <si>
     <t>44,21%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
   </si>
   <si>
     <t>45,21%</t>
@@ -1815,7 +1812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EF8649-B663-45EF-B057-D6AEB59E97D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B44C463-1A44-4BB3-822E-1EDAB2E5EDDE}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3478,7 +3475,7 @@
         <v>3214</v>
       </c>
       <c r="D34" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>11</v>
@@ -3682,7 +3679,7 @@
         <v>3214</v>
       </c>
       <c r="D38" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>13</v>
@@ -3748,7 +3745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27DCF88A-C1AC-472E-B758-2AB2FCD7FEB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B98E5AF-0F91-47D8-96BA-85D6E6589C6D}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5681,7 +5678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAE57F9-8340-4DFF-B33F-EC1327B60A9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A51CF469-429C-40C9-B6AA-E66F487EB890}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6451,13 +6448,13 @@
         <v>634625</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6472,13 +6469,13 @@
         <v>261603</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H17" s="7">
         <v>279</v>
@@ -6487,13 +6484,13 @@
         <v>274166</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M17" s="7">
         <v>530</v>
@@ -6502,13 +6499,13 @@
         <v>535769</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6627,13 +6624,13 @@
         <v>70163</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H20" s="7">
         <v>40</v>
@@ -6642,28 +6639,28 @@
         <v>43078</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M20" s="7">
         <v>103</v>
       </c>
       <c r="N20" s="7">
-        <v>113242</v>
+        <v>113241</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6678,13 +6675,13 @@
         <v>324834</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H21" s="7">
         <v>329</v>
@@ -6693,28 +6690,28 @@
         <v>354537</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M21" s="7">
         <v>622</v>
       </c>
       <c r="N21" s="7">
-        <v>679371</v>
+        <v>679370</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6729,13 +6726,13 @@
         <v>251051</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H22" s="7">
         <v>233</v>
@@ -6744,13 +6741,13 @@
         <v>251462</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M22" s="7">
         <v>459</v>
@@ -6759,13 +6756,13 @@
         <v>502513</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6807,7 +6804,7 @@
         <v>1184</v>
       </c>
       <c r="N23" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -6854,7 +6851,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6884,13 +6881,13 @@
         <v>41814</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -6899,13 +6896,13 @@
         <v>9245</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -6914,13 +6911,13 @@
         <v>51059</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6935,13 +6932,13 @@
         <v>274995</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H26" s="7">
         <v>208</v>
@@ -6950,13 +6947,13 @@
         <v>237758</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M26" s="7">
         <v>451</v>
@@ -6965,13 +6962,13 @@
         <v>512753</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6986,13 +6983,13 @@
         <v>161110</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H27" s="7">
         <v>217</v>
@@ -7001,13 +6998,13 @@
         <v>249845</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M27" s="7">
         <v>360</v>
@@ -7016,13 +7013,13 @@
         <v>410955</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7141,13 +7138,13 @@
         <v>29523</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H30" s="7">
         <v>15</v>
@@ -7156,13 +7153,13 @@
         <v>16787</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M30" s="7">
         <v>47</v>
@@ -7171,13 +7168,13 @@
         <v>46310</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7192,13 +7189,13 @@
         <v>281568</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H31" s="7">
         <v>249</v>
@@ -7207,13 +7204,13 @@
         <v>284952</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M31" s="7">
         <v>545</v>
@@ -7222,13 +7219,13 @@
         <v>566520</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7243,13 +7240,13 @@
         <v>280238</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H32" s="7">
         <v>391</v>
@@ -7258,13 +7255,13 @@
         <v>476192</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M32" s="7">
         <v>690</v>
@@ -7273,13 +7270,13 @@
         <v>756430</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>176</v>
+        <v>239</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7398,13 +7395,13 @@
         <v>476535</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H35" s="7">
         <v>192</v>
@@ -7413,13 +7410,13 @@
         <v>197393</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>244</v>
+        <v>164</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M35" s="7">
         <v>642</v>
@@ -7431,10 +7428,10 @@
         <v>138</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7449,13 +7446,13 @@
         <v>1706415</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c r="H36" s="7">
         <v>1630</v>
@@ -7614,7 +7611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D14CB6-4D67-4129-B996-362C17989238}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7CFB2C-A879-4CA4-AF25-0F081B79BCE6}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7795,7 +7792,7 @@
         <v>271</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="H5" s="7">
         <v>45</v>
@@ -7804,13 +7801,13 @@
         <v>73222</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M5" s="7">
         <v>119</v>
@@ -7819,13 +7816,13 @@
         <v>240982</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7840,13 +7837,13 @@
         <v>151134</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H6" s="7">
         <v>103</v>
@@ -7855,13 +7852,13 @@
         <v>175264</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>185</v>
+        <v>283</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M6" s="7">
         <v>176</v>
@@ -7870,13 +7867,13 @@
         <v>326398</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7891,13 +7888,13 @@
         <v>58785</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H7" s="7">
         <v>59</v>
@@ -7906,13 +7903,13 @@
         <v>106471</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M7" s="7">
         <v>84</v>
@@ -7921,13 +7918,13 @@
         <v>165256</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8001,7 +7998,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -8016,7 +8013,7 @@
         <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -8031,7 +8028,7 @@
         <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8046,13 +8043,13 @@
         <v>127150</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="H10" s="7">
         <v>86</v>
@@ -8061,13 +8058,13 @@
         <v>93800</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M10" s="7">
         <v>180</v>
@@ -8076,13 +8073,13 @@
         <v>220950</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8097,13 +8094,13 @@
         <v>194432</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="H11" s="7">
         <v>240</v>
@@ -8112,13 +8109,13 @@
         <v>251216</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M11" s="7">
         <v>376</v>
@@ -8127,13 +8124,13 @@
         <v>445648</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>313</v>
+        <v>201</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8148,13 +8145,13 @@
         <v>106814</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H12" s="7">
         <v>135</v>
@@ -8163,13 +8160,13 @@
         <v>154200</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M12" s="7">
         <v>207</v>
@@ -8178,13 +8175,13 @@
         <v>261013</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8273,7 +8270,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -8288,7 +8285,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8303,13 +8300,13 @@
         <v>142284</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H15" s="7">
         <v>171</v>
@@ -8318,13 +8315,13 @@
         <v>111993</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M15" s="7">
         <v>309</v>
@@ -8333,13 +8330,13 @@
         <v>254278</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8354,13 +8351,13 @@
         <v>267114</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>118</v>
+        <v>337</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H16" s="7">
         <v>412</v>
@@ -8369,13 +8366,13 @@
         <v>281479</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M16" s="7">
         <v>674</v>
@@ -8384,13 +8381,13 @@
         <v>548593</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>342</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8405,13 +8402,13 @@
         <v>147854</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H17" s="7">
         <v>265</v>
@@ -8420,13 +8417,13 @@
         <v>216975</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M17" s="7">
         <v>411</v>
@@ -8435,13 +8432,13 @@
         <v>364828</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8545,7 +8542,7 @@
         <v>18</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8560,13 +8557,13 @@
         <v>182008</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H20" s="7">
         <v>251</v>
@@ -8575,13 +8572,13 @@
         <v>147850</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>356</v>
+        <v>95</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M20" s="7">
         <v>439</v>
@@ -8590,13 +8587,13 @@
         <v>329858</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8611,13 +8608,13 @@
         <v>354662</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H21" s="7">
         <v>564</v>
@@ -8626,13 +8623,13 @@
         <v>369547</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M21" s="7">
         <v>865</v>
@@ -8644,10 +8641,10 @@
         <v>254</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>122</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8662,13 +8659,13 @@
         <v>187320</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>84</v>
+        <v>372</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="H22" s="7">
         <v>326</v>
@@ -8677,13 +8674,13 @@
         <v>229864</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M22" s="7">
         <v>502</v>
@@ -8692,13 +8689,13 @@
         <v>417184</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>374</v>
+        <v>101</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8802,7 +8799,7 @@
         <v>18</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8817,13 +8814,13 @@
         <v>137334</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="H25" s="7">
         <v>182</v>
@@ -8832,13 +8829,13 @@
         <v>99888</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>382</v>
+        <v>83</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M25" s="7">
         <v>346</v>
@@ -8847,13 +8844,13 @@
         <v>237222</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8868,13 +8865,13 @@
         <v>259251</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="H26" s="7">
         <v>485</v>
@@ -8883,10 +8880,10 @@
         <v>285549</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>389</v>
+        <v>149</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>390</v>
@@ -8901,10 +8898,10 @@
         <v>391</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8919,13 +8916,13 @@
         <v>203572</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="H27" s="7">
         <v>335</v>
@@ -8934,13 +8931,13 @@
         <v>211626</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="M27" s="7">
         <v>551</v>
@@ -8949,13 +8946,13 @@
         <v>415198</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9044,7 +9041,7 @@
         <v>18</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -9059,7 +9056,7 @@
         <v>18</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9074,13 +9071,13 @@
         <v>134038</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>405</v>
-      </c>
       <c r="G30" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H30" s="7">
         <v>230</v>
@@ -9089,13 +9086,13 @@
         <v>226243</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="M30" s="7">
         <v>425</v>
@@ -9104,13 +9101,13 @@
         <v>360281</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9125,10 +9122,10 @@
         <v>341896</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>117</v>
@@ -9140,13 +9137,13 @@
         <v>332685</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="M31" s="7">
         <v>1131</v>
@@ -9155,13 +9152,13 @@
         <v>674581</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9176,13 +9173,13 @@
         <v>221821</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H32" s="7">
         <v>852</v>
@@ -9337,7 +9334,7 @@
         <v>431</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H35" s="7">
         <v>965</v>
@@ -9400,7 +9397,7 @@
         <v>441</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>442</v>
+        <v>229</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>260</v>
@@ -9412,13 +9409,13 @@
         <v>3264228</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9433,13 +9430,13 @@
         <v>926165</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="H37" s="7">
         <v>1972</v>
@@ -9448,13 +9445,13 @@
         <v>1386845</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="M37" s="7">
         <v>2935</v>
@@ -9463,13 +9460,13 @@
         <v>2313010</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IPAQ_MET-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IPAQ_MET-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{935D7F72-E929-4B39-BF8E-71035BC6F48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECF7F535-841F-4C35-AC2B-BFECADF1BC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AE4DAE16-462B-4A9D-B57C-2CBA73FBD424}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5D1A0CA7-C0C4-4F99-82D4-66FF07F5814A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="461">
   <si>
     <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -272,979 +272,994 @@
     <t>24,46%</t>
   </si>
   <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
   </si>
   <si>
     <t>9,4%</t>
   </si>
   <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
   </si>
   <si>
     <t>17,15%</t>
   </si>
   <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
   </si>
   <si>
     <t>51,97%</t>
   </si>
   <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
   </si>
   <si>
     <t>50,71%</t>
   </si>
   <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
   </si>
   <si>
     <t>51,36%</t>
   </si>
   <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
   </si>
   <si>
     <t>23,57%</t>
   </si>
   <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
     <t>19,79%</t>
   </si>
   <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
   </si>
   <si>
     <t>28,36%</t>
   </si>
   <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
   </si>
   <si>
     <t>48,03%</t>
   </si>
   <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
     <t>33,92%</t>
   </si>
   <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
   </si>
   <si>
     <t>35,44%</t>
   </si>
   <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
   </si>
   <si>
     <t>34,68%</t>
   </si>
   <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
   </si>
   <si>
     <t>0,07%</t>
@@ -1253,76 +1268,79 @@
     <t>19,21%</t>
   </si>
   <si>
-    <t>16,98%</t>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
   </si>
   <si>
     <t>22,04%</t>
   </si>
   <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
   </si>
   <si>
     <t>20,89%</t>
   </si>
   <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
   </si>
   <si>
     <t>49,0%</t>
   </si>
   <si>
-    <t>46,21%</t>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
   </si>
   <si>
     <t>32,41%</t>
   </si>
   <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
   </si>
   <si>
     <t>39,12%</t>
   </si>
   <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
   </si>
   <si>
     <t>31,79%</t>
   </si>
   <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
   </si>
   <si>
     <t>45,56%</t>
   </si>
   <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
+    <t>33,24%</t>
   </si>
   <si>
     <t>39,99%</t>
   </si>
   <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
   </si>
   <si>
     <t>0,04%</t>
@@ -1334,16 +1352,19 @@
     <t>26,31%</t>
   </si>
   <si>
-    <t>24,36%</t>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
   </si>
   <si>
     <t>19,63%</t>
   </si>
   <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
   </si>
   <si>
     <t>22,76%</t>
@@ -1352,55 +1373,55 @@
     <t>21,11%</t>
   </si>
   <si>
-    <t>27,62%</t>
+    <t>26,88%</t>
   </si>
   <si>
     <t>46,33%</t>
   </si>
   <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
   </si>
   <si>
     <t>44,21%</t>
   </si>
   <si>
+    <t>46,29%</t>
+  </si>
+  <si>
     <t>45,21%</t>
   </si>
   <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
   </si>
   <si>
     <t>27,36%</t>
   </si>
   <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
+    <t>25,5%</t>
   </si>
   <si>
     <t>36,16%</t>
   </si>
   <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
   </si>
   <si>
     <t>32,03%</t>
   </si>
   <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
   </si>
 </sst>
 </file>
@@ -1812,7 +1833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B44C463-1A44-4BB3-822E-1EDAB2E5EDDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD7BC238-E913-46DF-A797-ABFD67A699A3}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3475,7 +3496,7 @@
         <v>3214</v>
       </c>
       <c r="D34" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>11</v>
@@ -3505,7 +3526,7 @@
         <v>6511</v>
       </c>
       <c r="N34" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>11</v>
@@ -3679,7 +3700,7 @@
         <v>3214</v>
       </c>
       <c r="D38" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>13</v>
@@ -3709,7 +3730,7 @@
         <v>6511</v>
       </c>
       <c r="N38" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>13</v>
@@ -3745,7 +3766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B98E5AF-0F91-47D8-96BA-85D6E6589C6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D03FED-E09F-4CBE-A194-0EDABF347B9E}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5678,7 +5699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A51CF469-429C-40C9-B6AA-E66F487EB890}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61139CAF-BBD7-4A75-9F03-16D3F86F9530}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6197,7 +6218,7 @@
         <v>121</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6212,13 +6233,13 @@
         <v>158544</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H12" s="7">
         <v>236</v>
@@ -6227,13 +6248,13 @@
         <v>228800</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M12" s="7">
         <v>390</v>
@@ -6242,13 +6263,13 @@
         <v>387344</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6322,7 +6343,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6367,13 +6388,13 @@
         <v>109720</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H15" s="7">
         <v>50</v>
@@ -6382,13 +6403,13 @@
         <v>50368</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M15" s="7">
         <v>155</v>
@@ -6397,13 +6418,13 @@
         <v>160089</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6418,13 +6439,13 @@
         <v>297774</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H16" s="7">
         <v>336</v>
@@ -6433,13 +6454,13 @@
         <v>336851</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M16" s="7">
         <v>618</v>
@@ -6448,13 +6469,13 @@
         <v>634625</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6469,13 +6490,13 @@
         <v>261603</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H17" s="7">
         <v>279</v>
@@ -6484,13 +6505,13 @@
         <v>274166</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M17" s="7">
         <v>530</v>
@@ -6499,13 +6520,13 @@
         <v>535769</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6624,13 +6645,13 @@
         <v>70163</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H20" s="7">
         <v>40</v>
@@ -6639,13 +6660,13 @@
         <v>43078</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M20" s="7">
         <v>103</v>
@@ -6654,13 +6675,13 @@
         <v>113241</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6675,13 +6696,13 @@
         <v>324834</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H21" s="7">
         <v>329</v>
@@ -6690,13 +6711,13 @@
         <v>354537</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M21" s="7">
         <v>622</v>
@@ -6705,13 +6726,13 @@
         <v>679370</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6726,13 +6747,13 @@
         <v>251051</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H22" s="7">
         <v>233</v>
@@ -6741,13 +6762,13 @@
         <v>251462</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M22" s="7">
         <v>459</v>
@@ -6756,13 +6777,13 @@
         <v>502513</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6851,7 +6872,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6881,13 +6902,13 @@
         <v>41814</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -6896,13 +6917,13 @@
         <v>9245</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -6911,13 +6932,13 @@
         <v>51059</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6932,13 +6953,13 @@
         <v>274995</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H26" s="7">
         <v>208</v>
@@ -6947,13 +6968,13 @@
         <v>237758</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M26" s="7">
         <v>451</v>
@@ -6962,13 +6983,13 @@
         <v>512753</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6983,13 +7004,13 @@
         <v>161110</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H27" s="7">
         <v>217</v>
@@ -6998,13 +7019,13 @@
         <v>249845</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M27" s="7">
         <v>360</v>
@@ -7013,13 +7034,13 @@
         <v>410955</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7138,13 +7159,13 @@
         <v>29523</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H30" s="7">
         <v>15</v>
@@ -7153,13 +7174,13 @@
         <v>16787</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M30" s="7">
         <v>47</v>
@@ -7168,13 +7189,13 @@
         <v>46310</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7189,13 +7210,13 @@
         <v>281568</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H31" s="7">
         <v>249</v>
@@ -7204,13 +7225,13 @@
         <v>284952</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M31" s="7">
         <v>545</v>
@@ -7219,13 +7240,13 @@
         <v>566520</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7240,13 +7261,13 @@
         <v>280238</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H32" s="7">
         <v>391</v>
@@ -7255,13 +7276,13 @@
         <v>476192</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M32" s="7">
         <v>690</v>
@@ -7270,13 +7291,13 @@
         <v>756430</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7395,13 +7416,13 @@
         <v>476535</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H35" s="7">
         <v>192</v>
@@ -7410,13 +7431,13 @@
         <v>197393</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M35" s="7">
         <v>642</v>
@@ -7425,13 +7446,13 @@
         <v>673928</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>138</v>
+        <v>244</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7446,13 +7467,13 @@
         <v>1706415</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H36" s="7">
         <v>1630</v>
@@ -7461,13 +7482,13 @@
         <v>1708794</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M36" s="7">
         <v>3246</v>
@@ -7476,13 +7497,13 @@
         <v>3415209</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="P36" s="7" t="s">
-        <v>255</v>
-      </c>
       <c r="Q36" s="7" t="s">
-        <v>256</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7497,13 +7518,13 @@
         <v>1211401</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H37" s="7">
         <v>1516</v>
@@ -7512,13 +7533,13 @@
         <v>1638355</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M37" s="7">
         <v>2681</v>
@@ -7527,13 +7548,13 @@
         <v>2849755</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7611,7 +7632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7CFB2C-A879-4CA4-AF25-0F081B79BCE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48AB516-9F38-44CE-8942-858C9A117463}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7628,7 +7649,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7741,37 +7762,37 @@
         <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7786,13 +7807,13 @@
         <v>167760</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H5" s="7">
         <v>45</v>
@@ -7801,13 +7822,13 @@
         <v>73222</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M5" s="7">
         <v>119</v>
@@ -7816,13 +7837,13 @@
         <v>240982</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7837,13 +7858,13 @@
         <v>151134</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="H6" s="7">
         <v>103</v>
@@ -7852,13 +7873,13 @@
         <v>175264</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M6" s="7">
         <v>176</v>
@@ -7867,13 +7888,13 @@
         <v>326398</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7888,13 +7909,13 @@
         <v>58785</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H7" s="7">
         <v>59</v>
@@ -7903,13 +7924,13 @@
         <v>106471</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M7" s="7">
         <v>84</v>
@@ -7918,13 +7939,13 @@
         <v>165256</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7998,7 +8019,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -8013,7 +8034,7 @@
         <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -8028,7 +8049,7 @@
         <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8043,13 +8064,13 @@
         <v>127150</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H10" s="7">
         <v>86</v>
@@ -8058,13 +8079,13 @@
         <v>93800</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M10" s="7">
         <v>180</v>
@@ -8073,13 +8094,13 @@
         <v>220950</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8094,13 +8115,13 @@
         <v>194432</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H11" s="7">
         <v>240</v>
@@ -8109,13 +8130,13 @@
         <v>251216</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M11" s="7">
         <v>376</v>
@@ -8124,13 +8145,13 @@
         <v>445648</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>201</v>
+        <v>313</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8145,13 +8166,13 @@
         <v>106814</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="H12" s="7">
         <v>135</v>
@@ -8160,13 +8181,13 @@
         <v>154200</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="M12" s="7">
         <v>207</v>
@@ -8175,13 +8196,13 @@
         <v>261013</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8270,7 +8291,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -8285,7 +8306,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8300,13 +8321,13 @@
         <v>142284</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="H15" s="7">
         <v>171</v>
@@ -8315,13 +8336,13 @@
         <v>111993</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="M15" s="7">
         <v>309</v>
@@ -8330,13 +8351,13 @@
         <v>254278</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8351,13 +8372,13 @@
         <v>267114</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="H16" s="7">
         <v>412</v>
@@ -8366,13 +8387,13 @@
         <v>281479</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="M16" s="7">
         <v>674</v>
@@ -8381,13 +8402,13 @@
         <v>548593</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8402,13 +8423,13 @@
         <v>147854</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H17" s="7">
         <v>265</v>
@@ -8417,13 +8438,13 @@
         <v>216975</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M17" s="7">
         <v>411</v>
@@ -8432,13 +8453,13 @@
         <v>364828</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8542,7 +8563,7 @@
         <v>18</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8557,13 +8578,13 @@
         <v>182008</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="H20" s="7">
         <v>251</v>
@@ -8572,7 +8593,7 @@
         <v>147850</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>95</v>
+        <v>357</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>358</v>
@@ -8638,7 +8659,7 @@
         <v>724209</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>369</v>
@@ -8689,13 +8710,13 @@
         <v>417184</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>101</v>
+        <v>377</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8737,7 +8758,7 @@
         <v>1806</v>
       </c>
       <c r="N23" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -8799,7 +8820,7 @@
         <v>18</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8814,13 +8835,13 @@
         <v>137334</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H25" s="7">
         <v>182</v>
@@ -8829,13 +8850,13 @@
         <v>99888</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>83</v>
+        <v>385</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="M25" s="7">
         <v>346</v>
@@ -8844,13 +8865,13 @@
         <v>237222</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8865,13 +8886,13 @@
         <v>259251</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>279</v>
+        <v>390</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>148</v>
+        <v>391</v>
       </c>
       <c r="H26" s="7">
         <v>485</v>
@@ -8880,13 +8901,13 @@
         <v>285549</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>149</v>
+        <v>393</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="M26" s="7">
         <v>768</v>
@@ -8895,13 +8916,13 @@
         <v>544800</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>153</v>
+        <v>396</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8916,13 +8937,13 @@
         <v>203572</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="H27" s="7">
         <v>335</v>
@@ -8931,13 +8952,13 @@
         <v>211626</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="M27" s="7">
         <v>551</v>
@@ -8946,13 +8967,13 @@
         <v>415198</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9041,7 +9062,7 @@
         <v>18</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -9056,7 +9077,7 @@
         <v>18</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9071,13 +9092,13 @@
         <v>134038</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>329</v>
+        <v>410</v>
       </c>
       <c r="H30" s="7">
         <v>230</v>
@@ -9086,13 +9107,13 @@
         <v>226243</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="M30" s="7">
         <v>425</v>
@@ -9101,13 +9122,13 @@
         <v>360281</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9119,16 +9140,16 @@
         <v>505</v>
       </c>
       <c r="D31" s="7">
-        <v>341896</v>
+        <v>341895</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>117</v>
+        <v>419</v>
       </c>
       <c r="H31" s="7">
         <v>626</v>
@@ -9137,13 +9158,13 @@
         <v>332685</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="M31" s="7">
         <v>1131</v>
@@ -9152,13 +9173,13 @@
         <v>674581</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9173,13 +9194,13 @@
         <v>221821</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="H32" s="7">
         <v>852</v>
@@ -9188,13 +9209,13 @@
         <v>467709</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>424</v>
+        <v>249</v>
       </c>
       <c r="M32" s="7">
         <v>1180</v>
@@ -9203,13 +9224,13 @@
         <v>689531</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9221,7 +9242,7 @@
         <v>1028</v>
       </c>
       <c r="D33" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>13</v>
@@ -9298,7 +9319,7 @@
         <v>18</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -9313,7 +9334,7 @@
         <v>18</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9328,13 +9349,13 @@
         <v>890575</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>277</v>
+        <v>438</v>
       </c>
       <c r="H35" s="7">
         <v>965</v>
@@ -9343,13 +9364,13 @@
         <v>752995</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="M35" s="7">
         <v>1818</v>
@@ -9358,13 +9379,13 @@
         <v>1643570</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9379,13 +9400,13 @@
         <v>1568488</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="H36" s="7">
         <v>2430</v>
@@ -9394,28 +9415,28 @@
         <v>1695740</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>229</v>
+        <v>97</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>260</v>
+        <v>449</v>
       </c>
       <c r="M36" s="7">
         <v>3990</v>
       </c>
       <c r="N36" s="7">
-        <v>3264228</v>
+        <v>3264229</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9430,13 +9451,13 @@
         <v>926165</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>447</v>
+        <v>356</v>
       </c>
       <c r="H37" s="7">
         <v>1972</v>
@@ -9445,13 +9466,13 @@
         <v>1386845</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="M37" s="7">
         <v>2935</v>
@@ -9460,13 +9481,13 @@
         <v>2313010</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9508,7 +9529,7 @@
         <v>8743</v>
       </c>
       <c r="N38" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>13</v>

--- a/data/trans_orig/IPAQ_MET-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IPAQ_MET-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECF7F535-841F-4C35-AC2B-BFECADF1BC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97559729-D25B-4F71-85FB-47198CB96351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5D1A0CA7-C0C4-4F99-82D4-66FF07F5814A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2FCD2F13-9FD3-434E-BDA2-A69B09C83E8E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="519">
   <si>
     <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>No recogida en edición</t>
@@ -113,7 +113,7 @@
     <t>Nivel bajo o inactivo</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>99,73%</t>
@@ -134,7 +134,7 @@
     <t>0,15%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>99,69%</t>
@@ -149,7 +149,7 @@
     <t>0,29%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>99,6%</t>
@@ -158,7 +158,7 @@
     <t>0,4%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>99,51%</t>
@@ -179,345 +179,387 @@
     <t>0,24%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
     <t>10,86%</t>
   </si>
   <si>
@@ -677,670 +719,805 @@
     <t>45,49%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
   </si>
   <si>
     <t>43,8%</t>
   </si>
   <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
   </si>
   <si>
     <t>0,04%</t>
@@ -1349,79 +1526,76 @@
     <t>0,02%</t>
   </si>
   <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
   </si>
 </sst>
 </file>
@@ -1833,8 +2007,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD7BC238-E913-46DF-A797-ABFD67A699A3}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C546675B-3D4C-4DBB-9CC5-68DF35B5CF5E}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3236,10 +3410,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D29" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>11</v>
@@ -3251,31 +3425,31 @@
         <v>13</v>
       </c>
       <c r="H29" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I29" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M29" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N29" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>13</v>
@@ -3299,7 +3473,7 @@
         <v>18</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -3314,7 +3488,7 @@
         <v>18</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -3329,7 +3503,7 @@
         <v>18</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,7 +3524,7 @@
         <v>18</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3365,7 +3539,7 @@
         <v>18</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -3380,7 +3554,7 @@
         <v>18</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,7 +3575,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3416,7 +3590,7 @@
         <v>18</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3431,7 +3605,7 @@
         <v>18</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,10 +3614,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D33" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>13</v>
@@ -3455,10 +3629,10 @@
         <v>13</v>
       </c>
       <c r="H33" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I33" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>13</v>
@@ -3470,10 +3644,10 @@
         <v>13</v>
       </c>
       <c r="M33" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N33" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>13</v>
@@ -3487,52 +3661,52 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>3214</v>
+        <v>220</v>
       </c>
       <c r="D34" s="7">
-        <v>3276544</v>
+        <v>209883</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H34" s="7">
-        <v>3297</v>
+        <v>290</v>
       </c>
       <c r="I34" s="7">
-        <v>3379198</v>
+        <v>333908</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M34" s="7">
-        <v>6511</v>
+        <v>510</v>
       </c>
       <c r="N34" s="7">
-        <v>6655740</v>
+        <v>543791</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>13</v>
@@ -3556,7 +3730,7 @@
         <v>18</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3571,7 +3745,7 @@
         <v>18</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -3586,7 +3760,7 @@
         <v>18</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,7 +3781,7 @@
         <v>18</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3622,7 +3796,7 @@
         <v>18</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3637,7 +3811,7 @@
         <v>18</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,7 +3832,7 @@
         <v>18</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3673,7 +3847,7 @@
         <v>18</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3688,7 +3862,7 @@
         <v>18</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,63 +3871,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>220</v>
+      </c>
+      <c r="D38" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="7">
+        <v>290</v>
+      </c>
+      <c r="I38" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M38" s="7">
+        <v>510</v>
+      </c>
+      <c r="N38" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
         <v>3214</v>
       </c>
-      <c r="D38" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="D39" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="7">
         <v>3297</v>
       </c>
-      <c r="I38" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I39" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M39" s="7">
         <v>6511</v>
       </c>
-      <c r="N38" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>55</v>
+      <c r="N39" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0</v>
+      </c>
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M41" s="7">
+        <v>0</v>
+      </c>
+      <c r="N41" s="7">
+        <v>0</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M42" s="7">
+        <v>0</v>
+      </c>
+      <c r="N42" s="7">
+        <v>0</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
+        <v>3214</v>
+      </c>
+      <c r="D43" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="7">
+        <v>3297</v>
+      </c>
+      <c r="I43" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M43" s="7">
+        <v>6511</v>
+      </c>
+      <c r="N43" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3766,8 +4198,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D03FED-E09F-4CBE-A194-0EDABF347B9E}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23230E12-F065-4564-B18E-61ACF148C6C9}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3783,7 +4215,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3893,7 +4325,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -3908,7 +4340,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -3923,7 +4355,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3947,7 +4379,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3962,7 +4394,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3977,7 +4409,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,7 +4430,7 @@
         <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4013,7 +4445,7 @@
         <v>18</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4028,7 +4460,7 @@
         <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,7 +4481,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4064,7 +4496,7 @@
         <v>18</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4079,7 +4511,7 @@
         <v>18</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,7 +4597,7 @@
         <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>13</v>
@@ -4219,7 +4651,7 @@
         <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4270,7 +4702,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4321,7 +4753,7 @@
         <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4664,7 +5096,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -4679,7 +5111,7 @@
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -4694,7 +5126,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -4718,7 +5150,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4733,7 +5165,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4748,7 +5180,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,7 +5201,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4784,7 +5216,7 @@
         <v>18</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -4799,7 +5231,7 @@
         <v>18</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,7 +5252,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4835,7 +5267,7 @@
         <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4850,7 +5282,7 @@
         <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4936,7 +5368,7 @@
         <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>13</v>
@@ -4990,7 +5422,7 @@
         <v>18</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5041,7 +5473,7 @@
         <v>18</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5092,7 +5524,7 @@
         <v>18</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -5169,46 +5601,46 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D29" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H29" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I29" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M29" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N29" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>13</v>
@@ -5232,7 +5664,7 @@
         <v>18</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5247,7 +5679,7 @@
         <v>18</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -5262,7 +5694,7 @@
         <v>18</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5283,7 +5715,7 @@
         <v>18</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -5298,7 +5730,7 @@
         <v>18</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -5313,7 +5745,7 @@
         <v>18</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5334,7 +5766,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5349,7 +5781,7 @@
         <v>18</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5364,7 +5796,7 @@
         <v>18</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,10 +5805,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D33" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>13</v>
@@ -5388,10 +5820,10 @@
         <v>13</v>
       </c>
       <c r="H33" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I33" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>13</v>
@@ -5403,10 +5835,10 @@
         <v>13</v>
       </c>
       <c r="M33" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N33" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>13</v>
@@ -5420,52 +5852,52 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>3209</v>
+        <v>222</v>
       </c>
       <c r="D34" s="7">
-        <v>3426779</v>
+        <v>249851</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H34" s="7">
-        <v>3298</v>
+        <v>350</v>
       </c>
       <c r="I34" s="7">
-        <v>3558309</v>
+        <v>388979</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M34" s="7">
-        <v>6507</v>
+        <v>572</v>
       </c>
       <c r="N34" s="7">
-        <v>6985088</v>
+        <v>638830</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>13</v>
@@ -5489,7 +5921,7 @@
         <v>18</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -5504,7 +5936,7 @@
         <v>18</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -5519,7 +5951,7 @@
         <v>18</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5540,7 +5972,7 @@
         <v>18</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -5555,7 +5987,7 @@
         <v>18</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -5570,7 +6002,7 @@
         <v>18</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5591,7 +6023,7 @@
         <v>18</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -5606,7 +6038,7 @@
         <v>18</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -5621,7 +6053,7 @@
         <v>18</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5630,63 +6062,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>222</v>
+      </c>
+      <c r="D38" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="7">
+        <v>350</v>
+      </c>
+      <c r="I38" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M38" s="7">
+        <v>572</v>
+      </c>
+      <c r="N38" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
         <v>3209</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D39" s="7">
         <v>3426779</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="7">
         <v>3298</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I39" s="7">
         <v>3558309</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M39" s="7">
         <v>6507</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N39" s="7">
         <v>6985088</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>55</v>
+      <c r="O39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0</v>
+      </c>
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M41" s="7">
+        <v>0</v>
+      </c>
+      <c r="N41" s="7">
+        <v>0</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M42" s="7">
+        <v>0</v>
+      </c>
+      <c r="N42" s="7">
+        <v>0</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
+        <v>3209</v>
+      </c>
+      <c r="D43" s="7">
+        <v>3426779</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="7">
+        <v>3298</v>
+      </c>
+      <c r="I43" s="7">
+        <v>3558309</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M43" s="7">
+        <v>6507</v>
+      </c>
+      <c r="N43" s="7">
+        <v>6985088</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5699,8 +6389,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61139CAF-BBD7-4A75-9F03-16D3F86F9530}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6A6320-F47C-4795-88A5-8A430A81DCE5}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5716,7 +6406,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5844,7 +6534,7 @@
         <v>18</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5874,13 +6564,13 @@
         <v>102602</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H5" s="7">
         <v>37</v>
@@ -5889,13 +6579,13 @@
         <v>37198</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="M5" s="7">
         <v>133</v>
@@ -5904,13 +6594,13 @@
         <v>139800</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5925,13 +6615,13 @@
         <v>218005</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="H6" s="7">
         <v>207</v>
@@ -5940,13 +6630,13 @@
         <v>200668</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="M6" s="7">
         <v>412</v>
@@ -5955,13 +6645,13 @@
         <v>418673</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5976,13 +6666,13 @@
         <v>98855</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>160</v>
@@ -5991,13 +6681,13 @@
         <v>157889</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>252</v>
@@ -6006,13 +6696,13 @@
         <v>256744</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6086,7 +6776,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6101,7 +6791,7 @@
         <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6116,7 +6806,7 @@
         <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6131,13 +6821,13 @@
         <v>122712</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -6146,13 +6836,13 @@
         <v>40717</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="M10" s="7">
         <v>158</v>
@@ -6161,13 +6851,13 @@
         <v>163429</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6182,13 +6872,13 @@
         <v>309240</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="H11" s="7">
         <v>301</v>
@@ -6197,13 +6887,13 @@
         <v>294027</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="M11" s="7">
         <v>598</v>
@@ -6212,13 +6902,13 @@
         <v>603267</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6233,13 +6923,13 @@
         <v>158544</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="H12" s="7">
         <v>236</v>
@@ -6248,13 +6938,13 @@
         <v>228800</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="M12" s="7">
         <v>390</v>
@@ -6263,13 +6953,13 @@
         <v>387344</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6343,7 +7033,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6388,13 +7078,13 @@
         <v>109720</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="H15" s="7">
         <v>50</v>
@@ -6403,13 +7093,13 @@
         <v>50368</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="M15" s="7">
         <v>155</v>
@@ -6418,13 +7108,13 @@
         <v>160089</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6439,13 +7129,13 @@
         <v>297774</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="H16" s="7">
         <v>336</v>
@@ -6454,13 +7144,13 @@
         <v>336851</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="M16" s="7">
         <v>618</v>
@@ -6469,13 +7159,13 @@
         <v>634625</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6490,13 +7180,13 @@
         <v>261603</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="H17" s="7">
         <v>279</v>
@@ -6505,13 +7195,13 @@
         <v>274166</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="M17" s="7">
         <v>530</v>
@@ -6520,13 +7210,13 @@
         <v>535769</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6600,7 +7290,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6630,7 +7320,7 @@
         <v>18</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>50</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6645,13 +7335,13 @@
         <v>70163</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="H20" s="7">
         <v>40</v>
@@ -6660,13 +7350,13 @@
         <v>43078</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="M20" s="7">
         <v>103</v>
@@ -6675,13 +7365,13 @@
         <v>113241</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6696,13 +7386,13 @@
         <v>324834</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="H21" s="7">
         <v>329</v>
@@ -6711,13 +7401,13 @@
         <v>354537</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="M21" s="7">
         <v>622</v>
@@ -6726,13 +7416,13 @@
         <v>679370</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6747,13 +7437,13 @@
         <v>251051</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="H22" s="7">
         <v>233</v>
@@ -6762,13 +7452,13 @@
         <v>251462</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M22" s="7">
         <v>459</v>
@@ -6777,13 +7467,13 @@
         <v>502513</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6857,7 +7547,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6872,7 +7562,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6887,7 +7577,7 @@
         <v>18</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6902,13 +7592,13 @@
         <v>41814</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -6917,13 +7607,13 @@
         <v>9245</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -6932,13 +7622,13 @@
         <v>51059</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6953,13 +7643,13 @@
         <v>274995</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="H26" s="7">
         <v>208</v>
@@ -6968,13 +7658,13 @@
         <v>237758</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="M26" s="7">
         <v>451</v>
@@ -6983,13 +7673,13 @@
         <v>512753</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7004,13 +7694,13 @@
         <v>161110</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="H27" s="7">
         <v>217</v>
@@ -7019,13 +7709,13 @@
         <v>249845</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="M27" s="7">
         <v>360</v>
@@ -7034,13 +7724,13 @@
         <v>410955</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7114,7 +7804,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>34</v>
+        <v>226</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -7129,7 +7819,7 @@
         <v>18</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -7144,7 +7834,7 @@
         <v>18</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7153,49 +7843,49 @@
         <v>16</v>
       </c>
       <c r="C30" s="7">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D30" s="7">
-        <v>29523</v>
+        <v>17748</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="H30" s="7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I30" s="7">
-        <v>16787</v>
+        <v>14097</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="M30" s="7">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="N30" s="7">
-        <v>46310</v>
+        <v>31845</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7204,49 +7894,49 @@
         <v>22</v>
       </c>
       <c r="C31" s="7">
-        <v>296</v>
+        <v>176</v>
       </c>
       <c r="D31" s="7">
-        <v>281568</v>
+        <v>180832</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="H31" s="7">
-        <v>249</v>
+        <v>172</v>
       </c>
       <c r="I31" s="7">
-        <v>284952</v>
+        <v>182155</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="M31" s="7">
-        <v>545</v>
+        <v>348</v>
       </c>
       <c r="N31" s="7">
-        <v>566520</v>
+        <v>362987</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7255,49 +7945,49 @@
         <v>23</v>
       </c>
       <c r="C32" s="7">
-        <v>299</v>
+        <v>131</v>
       </c>
       <c r="D32" s="7">
-        <v>280238</v>
+        <v>135750</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>230</v>
+        <v>138</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="H32" s="7">
-        <v>391</v>
+        <v>169</v>
       </c>
       <c r="I32" s="7">
-        <v>476192</v>
+        <v>181510</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="M32" s="7">
-        <v>690</v>
+        <v>300</v>
       </c>
       <c r="N32" s="7">
-        <v>756430</v>
+        <v>317260</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7306,10 +7996,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D33" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>13</v>
@@ -7321,10 +8011,10 @@
         <v>13</v>
       </c>
       <c r="H33" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I33" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>13</v>
@@ -7336,10 +8026,10 @@
         <v>13</v>
       </c>
       <c r="M33" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N33" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>13</v>
@@ -7353,7 +8043,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -7371,7 +8061,7 @@
         <v>18</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -7386,7 +8076,7 @@
         <v>18</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>53</v>
+        <v>254</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -7401,7 +8091,7 @@
         <v>18</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7410,49 +8100,49 @@
         <v>16</v>
       </c>
       <c r="C35" s="7">
-        <v>450</v>
+        <v>14</v>
       </c>
       <c r="D35" s="7">
-        <v>476535</v>
+        <v>11775</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="H35" s="7">
-        <v>192</v>
+        <v>2</v>
       </c>
       <c r="I35" s="7">
-        <v>197393</v>
+        <v>2690</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>163</v>
+        <v>17</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="M35" s="7">
-        <v>642</v>
+        <v>16</v>
       </c>
       <c r="N35" s="7">
-        <v>673928</v>
+        <v>14465</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7461,49 +8151,49 @@
         <v>22</v>
       </c>
       <c r="C36" s="7">
-        <v>1616</v>
+        <v>120</v>
       </c>
       <c r="D36" s="7">
-        <v>1706415</v>
+        <v>100736</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="H36" s="7">
-        <v>1630</v>
+        <v>77</v>
       </c>
       <c r="I36" s="7">
-        <v>1708794</v>
+        <v>102797</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="M36" s="7">
-        <v>3246</v>
+        <v>197</v>
       </c>
       <c r="N36" s="7">
-        <v>3415209</v>
+        <v>203533</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>172</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7512,49 +8202,49 @@
         <v>23</v>
       </c>
       <c r="C37" s="7">
-        <v>1165</v>
+        <v>168</v>
       </c>
       <c r="D37" s="7">
-        <v>1211401</v>
+        <v>144488</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="H37" s="7">
-        <v>1516</v>
+        <v>222</v>
       </c>
       <c r="I37" s="7">
-        <v>1638355</v>
+        <v>294682</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="M37" s="7">
-        <v>2681</v>
+        <v>390</v>
       </c>
       <c r="N37" s="7">
-        <v>2849755</v>
+        <v>439169</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7563,63 +8253,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>302</v>
+      </c>
+      <c r="D38" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="7">
+        <v>301</v>
+      </c>
+      <c r="I38" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M38" s="7">
+        <v>603</v>
+      </c>
+      <c r="N38" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0</v>
+      </c>
+      <c r="N39" s="7">
+        <v>0</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="7">
+        <v>450</v>
+      </c>
+      <c r="D40" s="7">
+        <v>476535</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H40" s="7">
+        <v>192</v>
+      </c>
+      <c r="I40" s="7">
+        <v>197393</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="M40" s="7">
+        <v>642</v>
+      </c>
+      <c r="N40" s="7">
+        <v>673928</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1616</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1706415</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1630</v>
+      </c>
+      <c r="I41" s="7">
+        <v>1708794</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="M41" s="7">
+        <v>3246</v>
+      </c>
+      <c r="N41" s="7">
+        <v>3415209</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1165</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1211401</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H42" s="7">
+        <v>1516</v>
+      </c>
+      <c r="I42" s="7">
+        <v>1638355</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="M42" s="7">
+        <v>2681</v>
+      </c>
+      <c r="N42" s="7">
+        <v>2849755</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>3231</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>3394350</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="7">
         <v>3338</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>3544542</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M43" s="7">
         <v>6569</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>6938892</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>55</v>
+      <c r="O43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -7632,8 +8580,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48AB516-9F38-44CE-8942-858C9A117463}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A26B9E2-62F2-4B13-A3F4-8B9529CA36A4}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -7649,7 +8597,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7762,7 +8710,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7777,7 +8725,7 @@
         <v>18</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7792,7 +8740,7 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7804,46 +8752,46 @@
         <v>74</v>
       </c>
       <c r="D5" s="7">
-        <v>167760</v>
+        <v>171189</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="H5" s="7">
         <v>45</v>
       </c>
       <c r="I5" s="7">
-        <v>73222</v>
+        <v>63817</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>271</v>
+        <v>311</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="M5" s="7">
         <v>119</v>
       </c>
       <c r="N5" s="7">
-        <v>240982</v>
+        <v>235006</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7855,46 +8803,46 @@
         <v>73</v>
       </c>
       <c r="D6" s="7">
-        <v>151134</v>
+        <v>165155</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>277</v>
+        <v>317</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>250</v>
+        <v>319</v>
       </c>
       <c r="H6" s="7">
         <v>103</v>
       </c>
       <c r="I6" s="7">
-        <v>175264</v>
+        <v>155168</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="M6" s="7">
         <v>176</v>
       </c>
       <c r="N6" s="7">
-        <v>326398</v>
+        <v>320323</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7906,46 +8854,46 @@
         <v>25</v>
       </c>
       <c r="D7" s="7">
-        <v>58785</v>
+        <v>63643</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="H7" s="7">
         <v>59</v>
       </c>
       <c r="I7" s="7">
-        <v>106471</v>
+        <v>94215</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>289</v>
+        <v>329</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="M7" s="7">
         <v>84</v>
       </c>
       <c r="N7" s="7">
-        <v>165256</v>
+        <v>157858</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7957,7 +8905,7 @@
         <v>172</v>
       </c>
       <c r="D8" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>13</v>
@@ -7972,7 +8920,7 @@
         <v>207</v>
       </c>
       <c r="I8" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>13</v>
@@ -7987,7 +8935,7 @@
         <v>379</v>
       </c>
       <c r="N8" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>13</v>
@@ -8019,7 +8967,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>294</v>
+        <v>50</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -8034,7 +8982,7 @@
         <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -8049,7 +8997,7 @@
         <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8061,46 +9009,46 @@
         <v>94</v>
       </c>
       <c r="D10" s="7">
-        <v>127150</v>
+        <v>128129</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="H10" s="7">
         <v>86</v>
       </c>
       <c r="I10" s="7">
-        <v>93800</v>
+        <v>85590</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="M10" s="7">
         <v>180</v>
       </c>
       <c r="N10" s="7">
-        <v>220950</v>
+        <v>213719</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8112,46 +9060,46 @@
         <v>136</v>
       </c>
       <c r="D11" s="7">
-        <v>194432</v>
+        <v>188381</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="H11" s="7">
         <v>240</v>
       </c>
       <c r="I11" s="7">
-        <v>251216</v>
+        <v>229499</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="M11" s="7">
         <v>376</v>
       </c>
       <c r="N11" s="7">
-        <v>445648</v>
+        <v>417880</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8163,46 +9111,46 @@
         <v>72</v>
       </c>
       <c r="D12" s="7">
-        <v>106814</v>
+        <v>107037</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="H12" s="7">
         <v>135</v>
       </c>
       <c r="I12" s="7">
-        <v>154200</v>
+        <v>197005</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="M12" s="7">
         <v>207</v>
       </c>
       <c r="N12" s="7">
-        <v>261013</v>
+        <v>304041</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>323</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8214,7 +9162,7 @@
         <v>302</v>
       </c>
       <c r="D13" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>13</v>
@@ -8229,7 +9177,7 @@
         <v>461</v>
       </c>
       <c r="I13" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
@@ -8244,7 +9192,7 @@
         <v>763</v>
       </c>
       <c r="N13" s="7">
-        <v>927611</v>
+        <v>935640</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>13</v>
@@ -8276,7 +9224,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -8291,7 +9239,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -8306,7 +9254,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8318,46 +9266,46 @@
         <v>138</v>
       </c>
       <c r="D15" s="7">
-        <v>142284</v>
+        <v>136516</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="H15" s="7">
         <v>171</v>
       </c>
       <c r="I15" s="7">
-        <v>111993</v>
+        <v>105399</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="M15" s="7">
         <v>309</v>
       </c>
       <c r="N15" s="7">
-        <v>254278</v>
+        <v>241915</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8369,46 +9317,46 @@
         <v>262</v>
       </c>
       <c r="D16" s="7">
-        <v>267114</v>
+        <v>256725</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="H16" s="7">
         <v>412</v>
       </c>
       <c r="I16" s="7">
-        <v>281479</v>
+        <v>260320</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="M16" s="7">
         <v>674</v>
       </c>
       <c r="N16" s="7">
-        <v>548593</v>
+        <v>517045</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8420,46 +9368,46 @@
         <v>146</v>
       </c>
       <c r="D17" s="7">
-        <v>147854</v>
+        <v>143097</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="H17" s="7">
         <v>265</v>
       </c>
       <c r="I17" s="7">
-        <v>216975</v>
+        <v>226283</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="M17" s="7">
         <v>411</v>
       </c>
       <c r="N17" s="7">
-        <v>364828</v>
+        <v>369380</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8471,7 +9419,7 @@
         <v>546</v>
       </c>
       <c r="D18" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -8486,7 +9434,7 @@
         <v>848</v>
       </c>
       <c r="I18" s="7">
-        <v>610447</v>
+        <v>592002</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -8501,7 +9449,7 @@
         <v>1394</v>
       </c>
       <c r="N18" s="7">
-        <v>1167699</v>
+        <v>1128340</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -8548,7 +9496,7 @@
         <v>18</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -8563,7 +9511,7 @@
         <v>18</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8575,46 +9523,46 @@
         <v>188</v>
       </c>
       <c r="D20" s="7">
-        <v>182008</v>
+        <v>172830</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="H20" s="7">
         <v>251</v>
       </c>
       <c r="I20" s="7">
-        <v>147850</v>
+        <v>137897</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="M20" s="7">
         <v>439</v>
       </c>
       <c r="N20" s="7">
-        <v>329858</v>
+        <v>310726</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8626,46 +9574,46 @@
         <v>301</v>
       </c>
       <c r="D21" s="7">
-        <v>354662</v>
+        <v>537513</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="H21" s="7">
         <v>564</v>
       </c>
       <c r="I21" s="7">
-        <v>369547</v>
+        <v>339067</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>367</v>
+        <v>403</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>368</v>
+        <v>104</v>
       </c>
       <c r="M21" s="7">
         <v>865</v>
       </c>
       <c r="N21" s="7">
-        <v>724209</v>
+        <v>876580</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>253</v>
+        <v>404</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>370</v>
+        <v>406</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8677,46 +9625,46 @@
         <v>176</v>
       </c>
       <c r="D22" s="7">
-        <v>187320</v>
+        <v>177443</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>371</v>
+        <v>407</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>373</v>
+        <v>409</v>
       </c>
       <c r="H22" s="7">
         <v>326</v>
       </c>
       <c r="I22" s="7">
-        <v>229864</v>
+        <v>235918</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>375</v>
+        <v>411</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>376</v>
+        <v>405</v>
       </c>
       <c r="M22" s="7">
         <v>502</v>
       </c>
       <c r="N22" s="7">
-        <v>417184</v>
+        <v>413361</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8728,7 +9676,7 @@
         <v>665</v>
       </c>
       <c r="D23" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -8743,7 +9691,7 @@
         <v>1141</v>
       </c>
       <c r="I23" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -8758,7 +9706,7 @@
         <v>1806</v>
       </c>
       <c r="N23" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -8820,7 +9768,7 @@
         <v>18</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>380</v>
+        <v>415</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8832,46 +9780,46 @@
         <v>164</v>
       </c>
       <c r="D25" s="7">
-        <v>137334</v>
+        <v>128347</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="H25" s="7">
         <v>182</v>
       </c>
       <c r="I25" s="7">
-        <v>99888</v>
+        <v>92625</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>355</v>
+        <v>421</v>
       </c>
       <c r="M25" s="7">
         <v>346</v>
       </c>
       <c r="N25" s="7">
-        <v>237222</v>
+        <v>220972</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>387</v>
+        <v>423</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>388</v>
+        <v>424</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8883,46 +9831,46 @@
         <v>283</v>
       </c>
       <c r="D26" s="7">
-        <v>259251</v>
+        <v>243525</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>390</v>
+        <v>426</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="H26" s="7">
         <v>485</v>
       </c>
       <c r="I26" s="7">
-        <v>285549</v>
+        <v>262681</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>392</v>
+        <v>428</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>394</v>
+        <v>430</v>
       </c>
       <c r="M26" s="7">
         <v>768</v>
       </c>
       <c r="N26" s="7">
-        <v>544800</v>
+        <v>506206</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>396</v>
+        <v>432</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8934,46 +9882,46 @@
         <v>216</v>
       </c>
       <c r="D27" s="7">
-        <v>203572</v>
+        <v>189361</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>398</v>
+        <v>434</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>399</v>
+        <v>435</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>400</v>
+        <v>436</v>
       </c>
       <c r="H27" s="7">
         <v>335</v>
       </c>
       <c r="I27" s="7">
-        <v>211626</v>
+        <v>192599</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>402</v>
+        <v>438</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="M27" s="7">
         <v>551</v>
       </c>
       <c r="N27" s="7">
-        <v>415198</v>
+        <v>381960</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>405</v>
+        <v>441</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>406</v>
+        <v>442</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8985,7 +9933,7 @@
         <v>663</v>
       </c>
       <c r="D28" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>13</v>
@@ -9000,7 +9948,7 @@
         <v>1002</v>
       </c>
       <c r="I28" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>13</v>
@@ -9015,7 +9963,7 @@
         <v>1665</v>
       </c>
       <c r="N28" s="7">
-        <v>1197220</v>
+        <v>1109139</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>13</v>
@@ -9047,7 +9995,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -9062,7 +10010,7 @@
         <v>18</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -9077,7 +10025,7 @@
         <v>18</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>407</v>
+        <v>363</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9086,49 +10034,49 @@
         <v>16</v>
       </c>
       <c r="C30" s="7">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="D30" s="7">
-        <v>134038</v>
+        <v>87246</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>408</v>
+        <v>443</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>409</v>
+        <v>444</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="H30" s="7">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="I30" s="7">
-        <v>226243</v>
+        <v>274770</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>411</v>
+        <v>446</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>412</v>
+        <v>447</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>413</v>
+        <v>448</v>
       </c>
       <c r="M30" s="7">
-        <v>425</v>
+        <v>286</v>
       </c>
       <c r="N30" s="7">
-        <v>360281</v>
+        <v>362017</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>414</v>
+        <v>449</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>415</v>
+        <v>450</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>416</v>
+        <v>451</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9137,49 +10085,49 @@
         <v>22</v>
       </c>
       <c r="C31" s="7">
-        <v>505</v>
+        <v>285</v>
       </c>
       <c r="D31" s="7">
-        <v>341895</v>
+        <v>184422</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>417</v>
+        <v>293</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>418</v>
+        <v>452</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="H31" s="7">
-        <v>626</v>
+        <v>384</v>
       </c>
       <c r="I31" s="7">
-        <v>332685</v>
+        <v>186824</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>420</v>
+        <v>454</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>421</v>
+        <v>455</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>422</v>
+        <v>456</v>
       </c>
       <c r="M31" s="7">
-        <v>1131</v>
+        <v>669</v>
       </c>
       <c r="N31" s="7">
-        <v>674581</v>
+        <v>371246</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>423</v>
+        <v>457</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>424</v>
+        <v>458</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9188,49 +10136,49 @@
         <v>23</v>
       </c>
       <c r="C32" s="7">
-        <v>328</v>
+        <v>149</v>
       </c>
       <c r="D32" s="7">
-        <v>221821</v>
+        <v>96497</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="H32" s="7">
-        <v>852</v>
+        <v>293</v>
       </c>
       <c r="I32" s="7">
-        <v>467709</v>
+        <v>146774</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>429</v>
+        <v>463</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>430</v>
+        <v>464</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>249</v>
+        <v>436</v>
       </c>
       <c r="M32" s="7">
-        <v>1180</v>
+        <v>442</v>
       </c>
       <c r="N32" s="7">
-        <v>689531</v>
+        <v>243271</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>433</v>
+        <v>467</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9239,10 +10187,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D33" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>13</v>
@@ -9254,10 +10202,10 @@
         <v>13</v>
       </c>
       <c r="H33" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I33" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>13</v>
@@ -9269,10 +10217,10 @@
         <v>13</v>
       </c>
       <c r="M33" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N33" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>13</v>
@@ -9286,7 +10234,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9304,7 +10252,7 @@
         <v>18</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>53</v>
+        <v>334</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -9319,7 +10267,7 @@
         <v>18</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>434</v>
+        <v>69</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -9334,7 +10282,7 @@
         <v>18</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>435</v>
+        <v>363</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9343,49 +10291,49 @@
         <v>16</v>
       </c>
       <c r="C35" s="7">
-        <v>853</v>
+        <v>59</v>
       </c>
       <c r="D35" s="7">
-        <v>890575</v>
+        <v>38648</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>436</v>
+        <v>468</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>437</v>
+        <v>469</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>438</v>
+        <v>95</v>
       </c>
       <c r="H35" s="7">
-        <v>965</v>
+        <v>80</v>
       </c>
       <c r="I35" s="7">
-        <v>752995</v>
+        <v>35815</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>439</v>
+        <v>470</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>440</v>
+        <v>471</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>441</v>
+        <v>472</v>
       </c>
       <c r="M35" s="7">
-        <v>1818</v>
+        <v>139</v>
       </c>
       <c r="N35" s="7">
-        <v>1643570</v>
+        <v>74463</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>442</v>
+        <v>473</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>443</v>
+        <v>474</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>444</v>
+        <v>475</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9394,49 +10342,49 @@
         <v>22</v>
       </c>
       <c r="C36" s="7">
-        <v>1560</v>
+        <v>220</v>
       </c>
       <c r="D36" s="7">
-        <v>1568488</v>
+        <v>134110</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>445</v>
+        <v>476</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>446</v>
+        <v>477</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>447</v>
+        <v>478</v>
       </c>
       <c r="H36" s="7">
-        <v>2430</v>
+        <v>242</v>
       </c>
       <c r="I36" s="7">
-        <v>1695740</v>
+        <v>115639</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>448</v>
+        <v>479</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>97</v>
+        <v>480</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>449</v>
+        <v>481</v>
       </c>
       <c r="M36" s="7">
-        <v>3990</v>
+        <v>462</v>
       </c>
       <c r="N36" s="7">
-        <v>3264229</v>
+        <v>249749</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>450</v>
+        <v>482</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>451</v>
+        <v>483</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>452</v>
+        <v>484</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9445,49 +10393,49 @@
         <v>23</v>
       </c>
       <c r="C37" s="7">
-        <v>963</v>
+        <v>179</v>
       </c>
       <c r="D37" s="7">
-        <v>926165</v>
+        <v>110001</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>453</v>
+        <v>485</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>454</v>
+        <v>486</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>356</v>
+        <v>487</v>
       </c>
       <c r="H37" s="7">
-        <v>1972</v>
+        <v>559</v>
       </c>
       <c r="I37" s="7">
-        <v>1386845</v>
+        <v>274377</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>455</v>
+        <v>488</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>456</v>
+        <v>489</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>457</v>
+        <v>490</v>
       </c>
       <c r="M37" s="7">
-        <v>2935</v>
+        <v>738</v>
       </c>
       <c r="N37" s="7">
-        <v>2313010</v>
+        <v>384378</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>458</v>
+        <v>491</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>459</v>
+        <v>310</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>460</v>
+        <v>492</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9496,63 +10444,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>458</v>
+      </c>
+      <c r="D38" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="7">
+        <v>881</v>
+      </c>
+      <c r="I38" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M38" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N38" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0</v>
+      </c>
+      <c r="N39" s="7">
+        <v>0</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="7">
+        <v>853</v>
+      </c>
+      <c r="D40" s="7">
+        <v>862906</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="H40" s="7">
+        <v>965</v>
+      </c>
+      <c r="I40" s="7">
+        <v>795913</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="M40" s="7">
+        <v>1818</v>
+      </c>
+      <c r="N40" s="7">
+        <v>1658818</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1560</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1709833</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="H41" s="7">
+        <v>2430</v>
+      </c>
+      <c r="I41" s="7">
+        <v>1549197</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="M41" s="7">
+        <v>3990</v>
+      </c>
+      <c r="N41" s="7">
+        <v>3259029</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="7">
+        <v>963</v>
+      </c>
+      <c r="D42" s="7">
+        <v>887079</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="H42" s="7">
+        <v>1972</v>
+      </c>
+      <c r="I42" s="7">
+        <v>1367171</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="M42" s="7">
+        <v>2935</v>
+      </c>
+      <c r="N42" s="7">
+        <v>2254249</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>3376</v>
       </c>
-      <c r="D38" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="D43" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="7">
         <v>5367</v>
       </c>
-      <c r="I38" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I43" s="7">
+        <v>3712280</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M43" s="7">
         <v>8743</v>
       </c>
-      <c r="N38" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>55</v>
+      <c r="N43" s="7">
+        <v>7172097</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
